--- a/Gestion/Seguimientos/Seguimiento Web.xlsx
+++ b/Gestion/Seguimientos/Seguimiento Web.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20180365-7312-4909-9A6B-B6C9C51E77DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE42C28C-6307-4BE5-923B-9E04615DF9A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="912" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1368" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Tarea</t>
   </si>
@@ -37,19 +37,13 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Crear html de inicio de sesion</t>
-  </si>
-  <si>
     <t>Crear html y css de inicio de sesion</t>
   </si>
   <si>
-    <t>CONTINUARA….</t>
-  </si>
-  <si>
-    <t>====</t>
-  </si>
-  <si>
-    <t>Esta noche</t>
+    <t>Crear html de pantalla home y su css</t>
+  </si>
+  <si>
+    <t>terminado</t>
   </si>
 </sst>
 </file>
@@ -377,15 +371,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
@@ -411,23 +405,38 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
